--- a/Civilworks cost/RADP Preparations/Netrakona/Projecttion_input.xlsx
+++ b/Civilworks cost/RADP Preparations/Netrakona/Projecttion_input.xlsx
@@ -8746,10 +8746,10 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="42.6640625" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="42.7109375" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -9014,21 +9014,21 @@
       <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="24.33203125" customWidth="1"/>
-    <col min="3" max="3" width="54.44140625" style="22" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="54.42578125" style="22" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="29.33203125" customWidth="1"/>
-    <col min="9" max="9" width="22.33203125" customWidth="1"/>
-    <col min="10" max="12" width="24.33203125" customWidth="1"/>
-    <col min="13" max="13" width="33.33203125" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="18.33203125" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="51.33203125" customWidth="1"/>
-    <col min="16" max="16" width="15.5546875" customWidth="1"/>
+    <col min="8" max="8" width="29.28515625" customWidth="1"/>
+    <col min="9" max="9" width="22.28515625" customWidth="1"/>
+    <col min="10" max="12" width="24.28515625" customWidth="1"/>
+    <col min="13" max="13" width="33.28515625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="51.28515625" customWidth="1"/>
+    <col min="16" max="16" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="63">
@@ -9534,7 +9534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="29" customFormat="1" ht="61.2" customHeight="1">
+    <row r="12" spans="1:16" s="29" customFormat="1" ht="61.15" customHeight="1">
       <c r="A12" s="106">
         <v>11</v>
       </c>
@@ -9671,7 +9671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="29" customFormat="1" ht="61.2" customHeight="1">
+    <row r="15" spans="1:16" s="29" customFormat="1" ht="61.15" customHeight="1">
       <c r="A15" s="106">
         <v>14</v>
       </c>
@@ -10090,7 +10090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:16" s="29" customFormat="1" ht="55.2" customHeight="1">
+    <row r="24" spans="1:16" s="29" customFormat="1" ht="55.15" customHeight="1">
       <c r="A24" s="106">
         <v>21</v>
       </c>
@@ -10865,7 +10865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="43.2" customHeight="1">
+    <row r="41" spans="1:16" ht="43.15" customHeight="1">
       <c r="A41" s="106">
         <v>40</v>
       </c>
@@ -10957,7 +10957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="43.2" customHeight="1">
+    <row r="43" spans="1:16" ht="43.15" customHeight="1">
       <c r="A43" s="106">
         <v>42</v>
       </c>
@@ -11002,7 +11002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="55.2" customHeight="1">
+    <row r="44" spans="1:16" ht="55.15" customHeight="1">
       <c r="A44" s="106">
         <v>43</v>
       </c>
@@ -11049,7 +11049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="43.2" customHeight="1">
+    <row r="45" spans="1:16" ht="43.15" customHeight="1">
       <c r="A45" s="106">
         <v>44</v>
       </c>
@@ -11094,7 +11094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="43.2" customHeight="1">
+    <row r="46" spans="1:16" ht="43.15" customHeight="1">
       <c r="A46" s="106">
         <v>45</v>
       </c>
@@ -11139,7 +11139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="43.2" customHeight="1">
+    <row r="47" spans="1:16" ht="43.15" customHeight="1">
       <c r="A47" s="106">
         <v>46</v>
       </c>
@@ -11184,7 +11184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="43.2" customHeight="1">
+    <row r="48" spans="1:16" ht="43.15" customHeight="1">
       <c r="A48" s="123">
         <v>47</v>
       </c>
@@ -11229,7 +11229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="43.2" customHeight="1">
+    <row r="49" spans="1:15" ht="43.15" customHeight="1">
       <c r="A49" s="16"/>
       <c r="B49" s="16"/>
       <c r="C49" s="43"/>
@@ -11261,7 +11261,7 @@
       <c r="N49" s="16"/>
       <c r="O49" s="59"/>
     </row>
-    <row r="50" spans="1:15" ht="43.2" customHeight="1">
+    <row r="50" spans="1:15" ht="43.15" customHeight="1">
       <c r="A50" s="88"/>
       <c r="B50" s="88"/>
       <c r="C50" s="130"/>
@@ -11278,7 +11278,7 @@
       <c r="N50" s="88"/>
       <c r="O50" s="132"/>
     </row>
-    <row r="51" spans="1:15" ht="43.2" customHeight="1">
+    <row r="51" spans="1:15" ht="43.15" customHeight="1">
       <c r="A51" s="88"/>
       <c r="B51" s="88"/>
       <c r="C51" s="130"/>
@@ -11295,7 +11295,7 @@
       <c r="N51" s="88"/>
       <c r="O51" s="132"/>
     </row>
-    <row r="52" spans="1:15" ht="43.2" customHeight="1">
+    <row r="52" spans="1:15" ht="43.15" customHeight="1">
       <c r="A52" s="88"/>
       <c r="B52" s="88"/>
       <c r="C52" s="130"/>
@@ -11312,8 +11312,8 @@
       <c r="N52" s="88"/>
       <c r="O52" s="132"/>
     </row>
-    <row r="53" spans="1:15" ht="32.700000000000003" customHeight="1"/>
-    <row r="54" spans="1:15" ht="31.2" customHeight="1">
+    <row r="53" spans="1:15" ht="32.65" customHeight="1"/>
+    <row r="54" spans="1:15" ht="31.15" customHeight="1">
       <c r="E54" s="16"/>
       <c r="F54" s="133" t="s">
         <v>331</v>
@@ -11335,7 +11335,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="31.2" customHeight="1">
+    <row r="55" spans="1:15" ht="31.15" customHeight="1">
       <c r="E55" s="87" t="s">
         <v>117</v>
       </c>
@@ -11365,7 +11365,7 @@
         <v>737.31</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="31.2" customHeight="1">
+    <row r="56" spans="1:15" ht="31.15" customHeight="1">
       <c r="E56" s="87" t="s">
         <v>128</v>
       </c>
@@ -11395,7 +11395,7 @@
         <v>126.12607828129785</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="31.2" customHeight="1">
+    <row r="57" spans="1:15" ht="31.15" customHeight="1">
       <c r="E57" s="87" t="s">
         <v>179</v>
       </c>
@@ -11425,7 +11425,7 @@
         <v>256.16000000000008</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="31.2" customHeight="1">
+    <row r="58" spans="1:15" ht="31.15" customHeight="1">
       <c r="E58" s="87" t="s">
         <v>139</v>
       </c>
@@ -11455,7 +11455,7 @@
         <v>583.96524217689739</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="31.2" customHeight="1">
+    <row r="59" spans="1:15" ht="31.15" customHeight="1">
       <c r="E59" s="87" t="s">
         <v>150</v>
       </c>
@@ -11485,7 +11485,7 @@
         <v>604.22301787267156</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="31.2" customHeight="1">
+    <row r="60" spans="1:15" ht="31.15" customHeight="1">
       <c r="E60" s="87" t="s">
         <v>169</v>
       </c>
@@ -11515,7 +11515,7 @@
         <v>318.63482352406112</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="31.2" customHeight="1">
+    <row r="61" spans="1:15" ht="31.15" customHeight="1">
       <c r="F61" s="90">
         <f>SUM(F55:F60)</f>
         <v>7825.8594837851497</v>
@@ -11542,7 +11542,7 @@
         <v>2626.419161854928</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="31.2" customHeight="1">
+    <row r="62" spans="1:15" ht="31.15" customHeight="1">
       <c r="E62" s="89"/>
       <c r="F62" s="88"/>
       <c r="G62" s="88"/>
@@ -11551,8 +11551,8 @@
       <c r="J62" s="88"/>
       <c r="K62" s="88"/>
     </row>
-    <row r="63" spans="1:15" ht="31.2" customHeight="1"/>
-    <row r="64" spans="1:15" ht="31.2" customHeight="1"/>
+    <row r="63" spans="1:15" ht="31.15" customHeight="1"/>
+    <row r="64" spans="1:15" ht="31.15" customHeight="1"/>
   </sheetData>
   <sortState ref="A2:O48">
     <sortCondition ref="B2:B48"/>
@@ -11577,22 +11577,22 @@
       <selection activeCell="M70" sqref="M70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="24.33203125" customWidth="1"/>
-    <col min="3" max="3" width="54.44140625" style="22" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="33.5546875" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="54.42578125" style="22" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="33.5703125" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
     <col min="7" max="7" width="16" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5546875" customWidth="1"/>
-    <col min="9" max="9" width="29.33203125" customWidth="1"/>
-    <col min="10" max="10" width="31.6640625" customWidth="1"/>
-    <col min="11" max="13" width="24.33203125" customWidth="1"/>
-    <col min="14" max="14" width="33.33203125" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="18.33203125" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="23.33203125" style="66" customWidth="1"/>
-    <col min="17" max="17" width="15.5546875" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" customWidth="1"/>
+    <col min="9" max="9" width="29.28515625" customWidth="1"/>
+    <col min="10" max="10" width="31.7109375" customWidth="1"/>
+    <col min="11" max="13" width="24.28515625" customWidth="1"/>
+    <col min="14" max="14" width="33.28515625" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="18.28515625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="23.28515625" style="66" customWidth="1"/>
+    <col min="17" max="17" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="63">
@@ -13258,7 +13258,7 @@
       <c r="P40" s="80"/>
       <c r="Q40" s="29"/>
     </row>
-    <row r="41" spans="1:17" ht="43.2" customHeight="1">
+    <row r="41" spans="1:17" ht="43.15" customHeight="1">
       <c r="A41" s="64">
         <v>45</v>
       </c>
@@ -13300,7 +13300,7 @@
       <c r="P41" s="77"/>
       <c r="Q41" s="26"/>
     </row>
-    <row r="42" spans="1:17" ht="43.2" customHeight="1">
+    <row r="42" spans="1:17" ht="43.15" customHeight="1">
       <c r="A42" s="64">
         <v>30</v>
       </c>
@@ -13344,7 +13344,7 @@
       </c>
       <c r="Q42" s="26"/>
     </row>
-    <row r="43" spans="1:17" ht="43.2" customHeight="1">
+    <row r="43" spans="1:17" ht="43.15" customHeight="1">
       <c r="A43" s="64">
         <v>33</v>
       </c>
@@ -13388,7 +13388,7 @@
       </c>
       <c r="Q43" s="26"/>
     </row>
-    <row r="44" spans="1:17" ht="43.2" customHeight="1">
+    <row r="44" spans="1:17" ht="43.15" customHeight="1">
       <c r="A44" s="64">
         <v>36</v>
       </c>
@@ -13432,7 +13432,7 @@
       </c>
       <c r="Q44" s="26"/>
     </row>
-    <row r="45" spans="1:17" ht="43.2" customHeight="1">
+    <row r="45" spans="1:17" ht="43.15" customHeight="1">
       <c r="A45" s="64">
         <v>39</v>
       </c>
@@ -13476,7 +13476,7 @@
       </c>
       <c r="Q45" s="26"/>
     </row>
-    <row r="46" spans="1:17" ht="43.2" customHeight="1">
+    <row r="46" spans="1:17" ht="43.15" customHeight="1">
       <c r="A46" s="64">
         <v>43</v>
       </c>
@@ -13520,7 +13520,7 @@
       </c>
       <c r="Q46" s="26"/>
     </row>
-    <row r="47" spans="1:17" ht="43.2" customHeight="1">
+    <row r="47" spans="1:17" ht="43.15" customHeight="1">
       <c r="A47" s="64">
         <v>46</v>
       </c>
@@ -13562,7 +13562,7 @@
       <c r="P47" s="79"/>
       <c r="Q47" s="26"/>
     </row>
-    <row r="48" spans="1:17" ht="43.2" customHeight="1">
+    <row r="48" spans="1:17" ht="43.15" customHeight="1">
       <c r="A48" s="64">
         <v>47</v>
       </c>
@@ -13604,7 +13604,7 @@
       <c r="P48" s="81"/>
       <c r="Q48" s="26"/>
     </row>
-    <row r="49" spans="1:16" ht="43.2" customHeight="1">
+    <row r="49" spans="1:16" ht="43.15" customHeight="1">
       <c r="A49" s="193" t="s">
         <v>113</v>
       </c>
@@ -13639,7 +13639,7 @@
       <c r="O49" s="16"/>
       <c r="P49" s="82"/>
     </row>
-    <row r="50" spans="1:16" ht="43.2" customHeight="1">
+    <row r="50" spans="1:16" ht="43.15" customHeight="1">
       <c r="A50" s="87"/>
       <c r="B50" s="87"/>
       <c r="C50" s="87"/>
@@ -13657,7 +13657,7 @@
       <c r="O50" s="16"/>
       <c r="P50" s="82"/>
     </row>
-    <row r="51" spans="1:16" ht="43.2" customHeight="1">
+    <row r="51" spans="1:16" ht="43.15" customHeight="1">
       <c r="A51" s="87"/>
       <c r="B51" s="87"/>
       <c r="C51" s="87"/>
@@ -13949,12 +13949,12 @@
       <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="9" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="9" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -14531,13 +14531,13 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.109375" customWidth="1"/>
-    <col min="2" max="2" width="22.44140625" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -14733,13 +14733,13 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
     <col min="2" max="10" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18">
+    <row r="1" spans="1:10" ht="18.75">
       <c r="A1" s="16"/>
       <c r="B1" s="10" t="s">
         <v>13</v>
@@ -14796,7 +14796,7 @@
       <c r="I3" s="109"/>
       <c r="J3" s="66"/>
     </row>
-    <row r="4" spans="1:10" ht="13.2" customHeight="1">
+    <row r="4" spans="1:10" ht="13.15" customHeight="1">
       <c r="A4" s="165" t="s">
         <v>550</v>
       </c>
@@ -14985,14 +14985,14 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="49.6640625" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" customWidth="1"/>
-    <col min="5" max="5" width="29.33203125" customWidth="1"/>
-    <col min="9" max="9" width="36.88671875" customWidth="1"/>
+    <col min="1" max="1" width="49.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" customWidth="1"/>
+    <col min="9" max="9" width="36.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -15311,20 +15311,20 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
     <col min="2" max="2" width="48" style="19" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="20" customWidth="1"/>
     <col min="4" max="4" width="12" style="21" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="19" customWidth="1"/>
-    <col min="6" max="6" width="38.6640625" style="19" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" style="20" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="19" customWidth="1"/>
-    <col min="9" max="9" width="13.5546875" style="19" customWidth="1"/>
-    <col min="10" max="10" width="18.33203125" style="20" customWidth="1"/>
-    <col min="11" max="11" width="21.6640625" style="19" customWidth="1"/>
-    <col min="12" max="12" width="15.6640625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="19" customWidth="1"/>
+    <col min="6" max="6" width="38.7109375" style="19" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" style="20" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="19" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="19" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" style="20" customWidth="1"/>
+    <col min="11" max="11" width="21.7109375" style="19" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="17.25" customHeight="1">
@@ -15367,7 +15367,7 @@
       <c r="M1" s="29"/>
       <c r="N1" s="29"/>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="53.7" customHeight="1">
+    <row r="2" spans="1:14" s="13" customFormat="1" ht="53.65" customHeight="1">
       <c r="A2" s="44" t="s">
         <v>115</v>
       </c>
@@ -15583,7 +15583,7 @@
       <c r="M7" s="42"/>
       <c r="N7" s="42"/>
     </row>
-    <row r="8" spans="1:14" s="13" customFormat="1" ht="43.2" customHeight="1">
+    <row r="8" spans="1:14" s="13" customFormat="1" ht="43.15" customHeight="1">
       <c r="A8" s="44" t="s">
         <v>126</v>
       </c>
@@ -17080,23 +17080,23 @@
       <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.44140625" customWidth="1"/>
+    <col min="1" max="1" width="37.42578125" customWidth="1"/>
     <col min="2" max="2" width="53" style="19" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="20" customWidth="1"/>
     <col min="4" max="4" width="12" style="21" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="19" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="19" customWidth="1"/>
     <col min="6" max="6" width="26" style="19" customWidth="1"/>
-    <col min="7" max="7" width="28.44140625" style="19" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" style="20" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" style="19" customWidth="1"/>
-    <col min="10" max="10" width="13.5546875" style="20" customWidth="1"/>
-    <col min="11" max="11" width="18.33203125" style="20" customWidth="1"/>
-    <col min="12" max="12" width="21.6640625" style="19" customWidth="1"/>
-    <col min="13" max="13" width="15.6640625" style="19" customWidth="1"/>
-    <col min="14" max="14" width="14.33203125" customWidth="1"/>
-    <col min="15" max="15" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="28.42578125" style="19" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" style="20" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="19" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="20" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" style="20" customWidth="1"/>
+    <col min="12" max="12" width="21.7109375" style="19" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" style="19" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" customWidth="1"/>
+    <col min="15" max="15" width="8.85546875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="55.5" customHeight="1">
@@ -17388,7 +17388,7 @@
       <c r="N7" s="42"/>
       <c r="O7" s="42"/>
     </row>
-    <row r="8" spans="1:15" s="13" customFormat="1" ht="43.2" customHeight="1">
+    <row r="8" spans="1:15" s="13" customFormat="1" ht="43.15" customHeight="1">
       <c r="A8" s="8" t="s">
         <v>500</v>
       </c>
@@ -18166,7 +18166,7 @@
       <c r="N27" s="42"/>
       <c r="O27" s="42"/>
     </row>
-    <row r="28" spans="1:15" s="158" customFormat="1" ht="32.4" customHeight="1">
+    <row r="28" spans="1:15" s="158" customFormat="1" ht="32.450000000000003" customHeight="1">
       <c r="A28" s="16" t="s">
         <v>482</v>
       </c>
@@ -18205,7 +18205,7 @@
       <c r="N28" s="42"/>
       <c r="O28" s="42"/>
     </row>
-    <row r="29" spans="1:15" s="158" customFormat="1" ht="34.200000000000003" customHeight="1">
+    <row r="29" spans="1:15" s="158" customFormat="1" ht="34.15" customHeight="1">
       <c r="A29" s="16" t="s">
         <v>482</v>
       </c>
@@ -18790,7 +18790,7 @@
       <c r="N43" s="42"/>
       <c r="O43" s="42"/>
     </row>
-    <row r="44" spans="1:15" s="13" customFormat="1" ht="43.2" customHeight="1">
+    <row r="44" spans="1:15" s="13" customFormat="1" ht="43.15" customHeight="1">
       <c r="A44" s="8" t="s">
         <v>464</v>
       </c>
@@ -19094,7 +19094,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="61.2" customHeight="1">
+    <row r="52" spans="1:13" ht="61.15" customHeight="1">
       <c r="A52" s="8" t="s">
         <v>436</v>
       </c>
@@ -19131,7 +19131,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="58.2" customHeight="1">
+    <row r="53" spans="1:13" ht="58.15" customHeight="1">
       <c r="A53" s="8" t="s">
         <v>436</v>
       </c>
@@ -19166,7 +19166,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="58.2" customHeight="1">
+    <row r="54" spans="1:13" ht="58.15" customHeight="1">
       <c r="A54" s="8" t="s">
         <v>435</v>
       </c>
@@ -19941,7 +19941,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="62.7" customHeight="1">
+    <row r="75" spans="1:13" ht="62.65" customHeight="1">
       <c r="A75" s="8" t="s">
         <v>408</v>
       </c>
@@ -20052,7 +20052,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="49.2" customHeight="1">
+    <row r="78" spans="1:13" ht="49.15" customHeight="1">
       <c r="A78" s="8" t="s">
         <v>408</v>
       </c>
@@ -20089,7 +20089,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="36">
+    <row r="79" spans="1:13" ht="37.5">
       <c r="A79" s="8" t="s">
         <v>408</v>
       </c>
@@ -20163,7 +20163,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="36">
+    <row r="81" spans="1:13" ht="37.5">
       <c r="A81" s="8" t="s">
         <v>408</v>
       </c>
@@ -20196,7 +20196,7 @@
       </c>
       <c r="M81" s="10"/>
     </row>
-    <row r="82" spans="1:13" ht="41.7" customHeight="1">
+    <row r="82" spans="1:13" ht="41.65" customHeight="1">
       <c r="A82" s="8" t="s">
         <v>408</v>
       </c>
@@ -20268,7 +20268,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="36">
+    <row r="84" spans="1:13" ht="37.5">
       <c r="A84" s="8" t="s">
         <v>503</v>
       </c>
@@ -20303,7 +20303,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="43.2" customHeight="1">
+    <row r="85" spans="1:13" ht="43.15" customHeight="1">
       <c r="A85" s="8" t="s">
         <v>503</v>
       </c>
@@ -20338,7 +20338,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="43.2" customHeight="1">
+    <row r="86" spans="1:13" ht="43.15" customHeight="1">
       <c r="A86" s="8" t="s">
         <v>503</v>
       </c>
@@ -20373,7 +20373,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="43.2" customHeight="1">
+    <row r="87" spans="1:13" ht="43.15" customHeight="1">
       <c r="A87" s="8" t="s">
         <v>503</v>
       </c>
@@ -20404,7 +20404,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="43.2" customHeight="1">
+    <row r="88" spans="1:13" ht="43.15" customHeight="1">
       <c r="A88" s="8" t="s">
         <v>503</v>
       </c>
@@ -20439,7 +20439,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="43.2" customHeight="1">
+    <row r="89" spans="1:13" ht="43.15" customHeight="1">
       <c r="A89" s="8" t="s">
         <v>503</v>
       </c>
@@ -20474,7 +20474,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="43.2" customHeight="1">
+    <row r="90" spans="1:13" ht="43.15" customHeight="1">
       <c r="A90" s="8" t="s">
         <v>503</v>
       </c>
@@ -20509,7 +20509,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="43.2" customHeight="1">
+    <row r="91" spans="1:13" ht="43.15" customHeight="1">
       <c r="A91" s="8" t="s">
         <v>503</v>
       </c>
@@ -20579,7 +20579,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="35.700000000000003" customHeight="1">
+    <row r="93" spans="1:13" ht="35.65" customHeight="1">
       <c r="A93" s="8" t="s">
         <v>414</v>
       </c>
@@ -20616,7 +20616,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="59.7" customHeight="1">
+    <row r="94" spans="1:13" ht="59.65" customHeight="1">
       <c r="A94" s="8" t="s">
         <v>414</v>
       </c>
@@ -20653,7 +20653,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="59.7" customHeight="1">
+    <row r="95" spans="1:13" ht="59.65" customHeight="1">
       <c r="A95" s="8" t="s">
         <v>379</v>
       </c>
@@ -20690,7 +20690,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="59.7" customHeight="1">
+    <row r="96" spans="1:13" ht="59.65" customHeight="1">
       <c r="A96" s="8" t="s">
         <v>379</v>
       </c>
@@ -20727,7 +20727,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="59.7" customHeight="1">
+    <row r="97" spans="1:13" ht="59.65" customHeight="1">
       <c r="A97" s="8" t="s">
         <v>379</v>
       </c>
@@ -20764,7 +20764,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="59.7" customHeight="1">
+    <row r="98" spans="1:13" ht="59.65" customHeight="1">
       <c r="A98" s="8" t="s">
         <v>379</v>
       </c>
@@ -20801,7 +20801,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="59.7" customHeight="1">
+    <row r="99" spans="1:13" ht="59.65" customHeight="1">
       <c r="A99" s="8" t="s">
         <v>379</v>
       </c>
@@ -20838,7 +20838,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="59.7" customHeight="1">
+    <row r="100" spans="1:13" ht="59.65" customHeight="1">
       <c r="A100" s="8" t="s">
         <v>379</v>
       </c>
@@ -20875,7 +20875,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="36">
+    <row r="101" spans="1:13" ht="37.5">
       <c r="A101" s="8" t="s">
         <v>379</v>
       </c>
@@ -20912,7 +20912,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="36">
+    <row r="102" spans="1:13" ht="37.5">
       <c r="A102" s="8" t="s">
         <v>379</v>
       </c>
@@ -20949,7 +20949,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="36">
+    <row r="103" spans="1:13" ht="37.5">
       <c r="A103" s="8" t="s">
         <v>379</v>
       </c>
@@ -20986,7 +20986,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="36">
+    <row r="104" spans="1:13" ht="37.5">
       <c r="A104" s="8" t="s">
         <v>519</v>
       </c>
@@ -21025,7 +21025,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="36">
+    <row r="105" spans="1:13" ht="37.5">
       <c r="A105" s="8" t="s">
         <v>519</v>
       </c>
@@ -21064,7 +21064,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="36">
+    <row r="106" spans="1:13" ht="56.25">
       <c r="A106" s="8" t="s">
         <v>519</v>
       </c>
@@ -21103,7 +21103,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="36">
+    <row r="107" spans="1:13" ht="37.5">
       <c r="A107" s="8" t="s">
         <v>519</v>
       </c>
@@ -21179,7 +21179,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="36">
+    <row r="109" spans="1:13" ht="37.5">
       <c r="A109" s="8" t="s">
         <v>403</v>
       </c>
@@ -21216,7 +21216,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="36">
+    <row r="110" spans="1:13" ht="37.5">
       <c r="A110" s="8" t="s">
         <v>403</v>
       </c>
@@ -21253,7 +21253,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="36">
+    <row r="111" spans="1:13" ht="37.5">
       <c r="A111" s="8" t="s">
         <v>403</v>
       </c>
@@ -21290,7 +21290,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="36">
+    <row r="112" spans="1:13" ht="37.5">
       <c r="A112" s="8" t="s">
         <v>403</v>
       </c>
@@ -21327,7 +21327,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="36">
+    <row r="113" spans="1:13" ht="37.5">
       <c r="A113" s="8" t="s">
         <v>403</v>
       </c>
@@ -21364,7 +21364,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="36">
+    <row r="114" spans="1:13" ht="37.5">
       <c r="A114" s="8" t="s">
         <v>403</v>
       </c>
@@ -21401,7 +21401,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="36">
+    <row r="115" spans="1:13" ht="37.5">
       <c r="A115" s="8" t="s">
         <v>403</v>
       </c>
@@ -21475,7 +21475,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="36">
+    <row r="117" spans="1:13" ht="37.5">
       <c r="A117" s="8" t="s">
         <v>403</v>
       </c>
@@ -21512,7 +21512,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="36">
+    <row r="118" spans="1:13" ht="37.5">
       <c r="A118" s="8" t="s">
         <v>403</v>
       </c>
@@ -21549,7 +21549,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="36">
+    <row r="119" spans="1:13" ht="37.5">
       <c r="A119" s="8" t="s">
         <v>403</v>
       </c>
@@ -21586,7 +21586,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="36">
+    <row r="120" spans="1:13" ht="37.5">
       <c r="A120" s="8" t="s">
         <v>403</v>
       </c>
@@ -21660,7 +21660,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="36">
+    <row r="122" spans="1:13" ht="37.5">
       <c r="A122" s="8" t="s">
         <v>350</v>
       </c>
@@ -21699,7 +21699,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="36">
+    <row r="123" spans="1:13" ht="37.5">
       <c r="A123" s="8" t="s">
         <v>350</v>
       </c>
@@ -21738,7 +21738,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="36">
+    <row r="124" spans="1:13" ht="37.5">
       <c r="A124" s="8" t="s">
         <v>350</v>
       </c>
@@ -21777,7 +21777,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="36">
+    <row r="125" spans="1:13" ht="37.5">
       <c r="A125" s="8" t="s">
         <v>350</v>
       </c>
@@ -21816,7 +21816,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="36">
+    <row r="126" spans="1:13" ht="37.5">
       <c r="A126" s="8" t="s">
         <v>350</v>
       </c>
@@ -21855,7 +21855,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="36">
+    <row r="127" spans="1:13" ht="37.5">
       <c r="A127" s="8" t="s">
         <v>350</v>
       </c>
@@ -21894,7 +21894,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="36">
+    <row r="128" spans="1:13" ht="37.5">
       <c r="A128" s="8" t="s">
         <v>350</v>
       </c>
@@ -21933,7 +21933,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="129" spans="1:14" ht="36">
+    <row r="129" spans="1:14" ht="37.5">
       <c r="A129" s="8" t="s">
         <v>361</v>
       </c>
@@ -21972,7 +21972,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="130" spans="1:14" ht="36">
+    <row r="130" spans="1:14" ht="37.5">
       <c r="A130" s="8" t="s">
         <v>374</v>
       </c>
@@ -22011,7 +22011,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="131" spans="1:14" ht="36">
+    <row r="131" spans="1:14" ht="37.5">
       <c r="A131" s="8" t="s">
         <v>374</v>
       </c>
@@ -22050,7 +22050,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="132" spans="1:14" ht="36">
+    <row r="132" spans="1:14" ht="37.5">
       <c r="A132" s="8" t="s">
         <v>374</v>
       </c>
@@ -22089,7 +22089,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="133" spans="1:14" ht="36">
+    <row r="133" spans="1:14" ht="37.5">
       <c r="A133" s="8" t="s">
         <v>374</v>
       </c>
@@ -22128,7 +22128,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="134" spans="1:14" ht="36">
+    <row r="134" spans="1:14" ht="37.5">
       <c r="A134" s="8" t="s">
         <v>374</v>
       </c>
@@ -22167,7 +22167,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="135" spans="1:14" ht="36">
+    <row r="135" spans="1:14" ht="37.5">
       <c r="A135" s="8" t="s">
         <v>374</v>
       </c>
@@ -22206,7 +22206,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="136" spans="1:14" ht="36">
+    <row r="136" spans="1:14" ht="37.5">
       <c r="A136" s="8" t="s">
         <v>374</v>
       </c>
@@ -22245,7 +22245,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="137" spans="1:14" ht="36">
+    <row r="137" spans="1:14" ht="37.5">
       <c r="A137" s="8" t="s">
         <v>374</v>
       </c>
@@ -22284,7 +22284,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="138" spans="1:14" ht="36">
+    <row r="138" spans="1:14" ht="37.5">
       <c r="A138" s="8" t="s">
         <v>369</v>
       </c>
@@ -22323,7 +22323,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="139" spans="1:14" ht="36">
+    <row r="139" spans="1:14" ht="37.5">
       <c r="A139" s="8" t="s">
         <v>369</v>
       </c>
@@ -22362,7 +22362,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="140" spans="1:14" ht="36">
+    <row r="140" spans="1:14" ht="37.5">
       <c r="A140" s="8" t="s">
         <v>369</v>
       </c>
@@ -22401,7 +22401,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="141" spans="1:14" ht="36">
+    <row r="141" spans="1:14" ht="37.5">
       <c r="A141" s="8" t="s">
         <v>369</v>
       </c>
@@ -22440,7 +22440,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="142" spans="1:14" ht="36">
+    <row r="142" spans="1:14" ht="37.5">
       <c r="A142" s="70" t="s">
         <v>369</v>
       </c>
@@ -22519,7 +22519,7 @@
       </c>
       <c r="N143" s="16"/>
     </row>
-    <row r="144" spans="1:14" ht="35.4" customHeight="1">
+    <row r="144" spans="1:14" ht="35.450000000000003" customHeight="1">
       <c r="A144" s="70" t="s">
         <v>566</v>
       </c>
@@ -22559,7 +22559,7 @@
       </c>
       <c r="N144" s="16"/>
     </row>
-    <row r="145" spans="1:14" ht="22.95" customHeight="1">
+    <row r="145" spans="1:14" ht="22.9" customHeight="1">
       <c r="A145" s="70" t="s">
         <v>566</v>
       </c>
@@ -22599,7 +22599,7 @@
       </c>
       <c r="N145" s="16"/>
     </row>
-    <row r="146" spans="1:14" ht="22.95" customHeight="1">
+    <row r="146" spans="1:14" ht="22.9" customHeight="1">
       <c r="A146" s="70" t="s">
         <v>566</v>
       </c>
@@ -22639,7 +22639,7 @@
       </c>
       <c r="N146" s="16"/>
     </row>
-    <row r="147" spans="1:14" ht="22.95" customHeight="1">
+    <row r="147" spans="1:14" ht="22.9" customHeight="1">
       <c r="A147" s="8" t="s">
         <v>566</v>
       </c>
@@ -22679,7 +22679,7 @@
       </c>
       <c r="N147" s="16"/>
     </row>
-    <row r="148" spans="1:14" ht="14.4" customHeight="1">
+    <row r="148" spans="1:14" ht="14.45" customHeight="1">
       <c r="B148" s="183"/>
     </row>
   </sheetData>
@@ -22706,20 +22706,20 @@
       <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="19.6640625" customWidth="1"/>
-    <col min="3" max="3" width="51.44140625" style="22" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="51.42578125" style="22" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
     <col min="6" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="29.33203125" customWidth="1"/>
-    <col min="9" max="9" width="22.33203125" customWidth="1"/>
-    <col min="10" max="12" width="24.33203125" customWidth="1"/>
-    <col min="13" max="13" width="33.33203125" customWidth="1"/>
-    <col min="14" max="14" width="18.33203125" customWidth="1"/>
-    <col min="15" max="15" width="31.6640625" customWidth="1"/>
-    <col min="16" max="16" width="15.5546875" customWidth="1"/>
+    <col min="8" max="8" width="29.28515625" customWidth="1"/>
+    <col min="9" max="9" width="22.28515625" customWidth="1"/>
+    <col min="10" max="12" width="24.28515625" customWidth="1"/>
+    <col min="13" max="13" width="33.28515625" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" customWidth="1"/>
+    <col min="15" max="15" width="31.7109375" customWidth="1"/>
+    <col min="16" max="16" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="63">
@@ -24610,28 +24610,28 @@
   <dimension ref="A1:O48"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="48.7109375" customWidth="1"/>
     <col min="2" max="2" width="48" style="19" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="20" customWidth="1"/>
     <col min="4" max="4" width="12" style="21" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="19" customWidth="1"/>
-    <col min="6" max="6" width="31.33203125" style="19" customWidth="1"/>
-    <col min="7" max="7" width="27.5546875" style="19" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" style="20" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="19" customWidth="1"/>
+    <col min="6" max="6" width="31.28515625" style="19" customWidth="1"/>
+    <col min="7" max="7" width="27.5703125" style="19" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" style="20" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="19" customWidth="1"/>
     <col min="10" max="10" width="17" style="19" customWidth="1"/>
-    <col min="11" max="11" width="18.33203125" style="20" customWidth="1"/>
-    <col min="12" max="12" width="21.6640625" style="19" customWidth="1"/>
-    <col min="13" max="13" width="15.6640625" style="19" customWidth="1"/>
-    <col min="14" max="14" width="21.5546875" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" style="20" customWidth="1"/>
+    <col min="12" max="12" width="21.7109375" style="19" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" style="19" customWidth="1"/>
+    <col min="14" max="14" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="7" customFormat="1" ht="35.4" customHeight="1">
+    <row r="1" spans="1:15" s="7" customFormat="1" ht="35.450000000000003" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -26606,20 +26606,20 @@
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="48.7109375" customWidth="1"/>
     <col min="2" max="2" width="48" style="19" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="20" customWidth="1"/>
     <col min="4" max="4" width="12" style="21" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="19" customWidth="1"/>
-    <col min="6" max="6" width="38.6640625" style="19" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" style="20" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="19" customWidth="1"/>
-    <col min="9" max="9" width="13.5546875" style="19" customWidth="1"/>
-    <col min="10" max="10" width="18.33203125" style="20" customWidth="1"/>
-    <col min="11" max="11" width="21.6640625" style="19" customWidth="1"/>
-    <col min="12" max="12" width="15.6640625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="19" customWidth="1"/>
+    <col min="6" max="6" width="38.7109375" style="19" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" style="20" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="19" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="19" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" style="20" customWidth="1"/>
+    <col min="11" max="11" width="21.7109375" style="19" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="17.25" customHeight="1">
@@ -28360,11 +28360,11 @@
       <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -28898,23 +28898,23 @@
       <selection activeCell="I46" sqref="I46:L52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="24.33203125" customWidth="1"/>
-    <col min="3" max="3" width="51.44140625" style="22" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="51.42578125" style="22" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
     <col min="6" max="6" width="21" style="140" customWidth="1"/>
     <col min="7" max="7" width="16" style="140" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="29.33203125" style="143" customWidth="1"/>
-    <col min="9" max="9" width="22.33203125" style="140" customWidth="1"/>
-    <col min="10" max="10" width="24.33203125" style="143" customWidth="1"/>
-    <col min="11" max="11" width="24.33203125" style="140" customWidth="1"/>
-    <col min="12" max="12" width="24.33203125" customWidth="1"/>
-    <col min="13" max="13" width="33.33203125" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="18.33203125" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="31.6640625" customWidth="1"/>
-    <col min="16" max="16" width="15.5546875" customWidth="1"/>
+    <col min="8" max="8" width="29.28515625" style="143" customWidth="1"/>
+    <col min="9" max="9" width="22.28515625" style="140" customWidth="1"/>
+    <col min="10" max="10" width="24.28515625" style="143" customWidth="1"/>
+    <col min="11" max="11" width="24.28515625" style="140" customWidth="1"/>
+    <col min="12" max="12" width="24.28515625" customWidth="1"/>
+    <col min="13" max="13" width="33.28515625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="31.7109375" customWidth="1"/>
+    <col min="16" max="16" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="63">
@@ -30924,7 +30924,7 @@
       <c r="N48" s="26"/>
       <c r="O48" s="26"/>
     </row>
-    <row r="49" spans="4:15" ht="31.2" customHeight="1">
+    <row r="49" spans="4:15" ht="31.15" customHeight="1">
       <c r="D49" s="145"/>
       <c r="E49" s="129" t="s">
         <v>40</v>
@@ -31026,7 +31026,7 @@
       <c r="N51" s="16"/>
       <c r="O51" s="16"/>
     </row>
-    <row r="52" spans="4:15" ht="34.200000000000003" customHeight="1">
+    <row r="52" spans="4:15" ht="34.15" customHeight="1">
       <c r="E52" s="129" t="s">
         <v>74</v>
       </c>
@@ -31059,7 +31059,7 @@
       <c r="N52" s="16"/>
       <c r="O52" s="16"/>
     </row>
-    <row r="53" spans="4:15" ht="34.200000000000003" customHeight="1">
+    <row r="53" spans="4:15" ht="34.15" customHeight="1">
       <c r="E53" s="129" t="s">
         <v>92</v>
       </c>

--- a/Civilworks cost/RADP Preparations/Netrakona/Projecttion_input.xlsx
+++ b/Civilworks cost/RADP Preparations/Netrakona/Projecttion_input.xlsx
@@ -1984,7 +1984,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2037,6 +2037,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -2142,7 +2148,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="194">
+  <cellXfs count="202">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2655,11 +2661,17 @@
     <xf numFmtId="164" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="10" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2672,6 +2684,24 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -13605,13 +13635,13 @@
       <c r="Q48" s="26"/>
     </row>
     <row r="49" spans="1:16" ht="43.15" customHeight="1">
-      <c r="A49" s="193" t="s">
+      <c r="A49" s="195" t="s">
         <v>113</v>
       </c>
-      <c r="B49" s="193"/>
-      <c r="C49" s="193"/>
-      <c r="D49" s="193"/>
-      <c r="E49" s="193"/>
+      <c r="B49" s="195"/>
+      <c r="C49" s="195"/>
+      <c r="D49" s="195"/>
+      <c r="E49" s="195"/>
       <c r="F49" s="39">
         <f>SUM(F2:F48)</f>
         <v>8936.8330894957307</v>
@@ -24564,13 +24594,13 @@
       </c>
     </row>
     <row r="43" spans="1:16" ht="33" customHeight="1">
-      <c r="A43" s="190" t="s">
+      <c r="A43" s="192" t="s">
         <v>92</v>
       </c>
-      <c r="B43" s="191"/>
-      <c r="C43" s="191"/>
-      <c r="D43" s="191"/>
-      <c r="E43" s="192"/>
+      <c r="B43" s="193"/>
+      <c r="C43" s="193"/>
+      <c r="D43" s="193"/>
+      <c r="E43" s="194"/>
       <c r="F43" s="9">
         <f>SUM(F2:F42)</f>
         <v>7378.322949676779</v>
@@ -24609,8 +24639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -24675,80 +24705,80 @@
       <c r="O1" s="29"/>
     </row>
     <row r="2" spans="1:15" s="42" customFormat="1" ht="57.75" customHeight="1">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="45">
         <v>35.828000000000003</v>
       </c>
-      <c r="E2" s="9">
-        <v>1132.4847496803</v>
-      </c>
-      <c r="F2" s="187">
+      <c r="E2" s="45">
+        <v>1263.9000000000001</v>
+      </c>
+      <c r="F2" s="189">
         <v>0.85</v>
       </c>
-      <c r="G2" s="187">
-        <v>1</v>
-      </c>
-      <c r="H2" s="10" t="s">
+      <c r="G2" s="189">
+        <v>1</v>
+      </c>
+      <c r="H2" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="10">
+      <c r="J2" s="48">
         <v>9</v>
       </c>
-      <c r="K2" s="11"/>
-      <c r="L2" s="12" t="s">
+      <c r="K2" s="190"/>
+      <c r="L2" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="48" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="42" customFormat="1" ht="57.75" customHeight="1">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="45">
         <v>10.69</v>
       </c>
-      <c r="E3" s="14">
-        <v>212.86</v>
-      </c>
-      <c r="F3" s="188">
+      <c r="E3" s="54">
+        <v>200.45</v>
+      </c>
+      <c r="F3" s="191">
         <v>0.85</v>
       </c>
-      <c r="G3" s="188">
-        <v>1</v>
-      </c>
-      <c r="H3" s="10" t="s">
+      <c r="G3" s="191">
+        <v>1</v>
+      </c>
+      <c r="H3" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="48">
         <v>9</v>
       </c>
-      <c r="K3" s="11"/>
-      <c r="L3" s="12" t="s">
+      <c r="K3" s="190"/>
+      <c r="L3" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="48" t="s">
         <v>16</v>
       </c>
     </row>
@@ -25155,123 +25185,123 @@
       <c r="O13" s="42"/>
     </row>
     <row r="14" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="196" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="167" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="167" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="197">
         <v>20.9</v>
       </c>
-      <c r="E14" s="9">
-        <v>450.21</v>
-      </c>
-      <c r="F14" s="187">
-        <v>1</v>
-      </c>
-      <c r="G14" s="187">
-        <v>1</v>
-      </c>
-      <c r="H14" s="10" t="s">
+      <c r="E14" s="197">
+        <v>522.9</v>
+      </c>
+      <c r="F14" s="198">
+        <v>1</v>
+      </c>
+      <c r="G14" s="198">
+        <v>1</v>
+      </c>
+      <c r="H14" s="199" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="10" t="s">
+      <c r="I14" s="199" t="s">
         <v>14</v>
       </c>
-      <c r="J14" s="10">
+      <c r="J14" s="199">
         <v>9</v>
       </c>
-      <c r="K14" s="11"/>
-      <c r="L14" s="12" t="s">
+      <c r="K14" s="200"/>
+      <c r="L14" s="201" t="s">
         <v>25</v>
       </c>
-      <c r="M14" s="10" t="s">
+      <c r="M14" s="199" t="s">
         <v>16</v>
       </c>
       <c r="N14" s="42"/>
       <c r="O14" s="42"/>
     </row>
     <row r="15" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="196" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="167" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="167" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="197">
         <v>3.56</v>
       </c>
-      <c r="E15" s="9">
-        <v>29.21</v>
-      </c>
-      <c r="F15" s="187">
-        <v>1</v>
-      </c>
-      <c r="G15" s="187">
-        <v>1</v>
-      </c>
-      <c r="H15" s="10" t="s">
+      <c r="E15" s="197">
+        <v>30.07</v>
+      </c>
+      <c r="F15" s="198">
+        <v>1</v>
+      </c>
+      <c r="G15" s="198">
+        <v>1</v>
+      </c>
+      <c r="H15" s="199" t="s">
         <v>34</v>
       </c>
-      <c r="I15" s="10" t="s">
+      <c r="I15" s="199" t="s">
         <v>14</v>
       </c>
-      <c r="J15" s="10">
+      <c r="J15" s="199">
         <v>10</v>
       </c>
-      <c r="K15" s="11"/>
-      <c r="L15" s="12" t="s">
+      <c r="K15" s="200"/>
+      <c r="L15" s="201" t="s">
         <v>19</v>
       </c>
-      <c r="M15" s="10" t="s">
+      <c r="M15" s="199" t="s">
         <v>16</v>
       </c>
       <c r="N15" s="42"/>
       <c r="O15" s="42"/>
     </row>
     <row r="16" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="196" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="167" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="167" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="9">
-        <v>1</v>
-      </c>
-      <c r="E16" s="9">
-        <v>389.57</v>
-      </c>
-      <c r="F16" s="187">
+      <c r="D16" s="197">
+        <v>1</v>
+      </c>
+      <c r="E16" s="197">
+        <v>374.43</v>
+      </c>
+      <c r="F16" s="198">
         <v>0.95</v>
       </c>
-      <c r="G16" s="187">
-        <v>1</v>
-      </c>
-      <c r="H16" s="10" t="s">
+      <c r="G16" s="198">
+        <v>1</v>
+      </c>
+      <c r="H16" s="199" t="s">
         <v>34</v>
       </c>
-      <c r="I16" s="10" t="s">
+      <c r="I16" s="199" t="s">
         <v>14</v>
       </c>
-      <c r="J16" s="10">
+      <c r="J16" s="199">
         <v>2</v>
       </c>
-      <c r="K16" s="11"/>
-      <c r="L16" s="12" t="s">
+      <c r="K16" s="200"/>
+      <c r="L16" s="201" t="s">
         <v>15</v>
       </c>
-      <c r="M16" s="10" t="s">
+      <c r="M16" s="199" t="s">
         <v>16</v>
       </c>
       <c r="N16" s="42"/>
@@ -26098,82 +26128,82 @@
       <c r="O36" s="42"/>
     </row>
     <row r="37" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="196" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="167" t="s">
         <v>73</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="167" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="9">
-        <v>15</v>
-      </c>
-      <c r="E37" s="9">
-        <v>654.80263279999997</v>
-      </c>
-      <c r="F37" s="187">
-        <v>1</v>
-      </c>
-      <c r="G37" s="187">
-        <v>1</v>
-      </c>
-      <c r="H37" s="10" t="s">
+      <c r="D37" s="197">
+        <v>10</v>
+      </c>
+      <c r="E37" s="197">
+        <v>522.74</v>
+      </c>
+      <c r="F37" s="198">
+        <v>1</v>
+      </c>
+      <c r="G37" s="198">
+        <v>1</v>
+      </c>
+      <c r="H37" s="199" t="s">
         <v>74</v>
       </c>
-      <c r="I37" s="10" t="s">
+      <c r="I37" s="199" t="s">
         <v>54</v>
       </c>
-      <c r="J37" s="10">
+      <c r="J37" s="199">
         <v>7</v>
       </c>
-      <c r="K37" s="11"/>
-      <c r="L37" s="12" t="s">
+      <c r="K37" s="200"/>
+      <c r="L37" s="201" t="s">
         <v>75</v>
       </c>
-      <c r="M37" s="10" t="s">
+      <c r="M37" s="199" t="s">
         <v>16</v>
       </c>
       <c r="N37" s="42"/>
       <c r="O37" s="42"/>
     </row>
     <row r="38" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="196" t="s">
         <v>72</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="167" t="s">
         <v>76</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="167" t="s">
         <v>12</v>
       </c>
-      <c r="D38" s="9">
-        <v>9</v>
-      </c>
-      <c r="E38" s="9">
-        <v>238.87413699999999</v>
-      </c>
-      <c r="F38" s="187">
-        <v>1</v>
-      </c>
-      <c r="G38" s="187">
-        <v>0</v>
-      </c>
-      <c r="H38" s="10" t="s">
+      <c r="D38" s="197">
+        <v>11.44</v>
+      </c>
+      <c r="E38" s="197">
+        <v>460.9</v>
+      </c>
+      <c r="F38" s="198">
+        <v>1</v>
+      </c>
+      <c r="G38" s="198">
+        <v>1</v>
+      </c>
+      <c r="H38" s="199" t="s">
         <v>74</v>
       </c>
-      <c r="I38" s="10" t="s">
+      <c r="I38" s="199" t="s">
         <v>54</v>
       </c>
-      <c r="J38" s="10">
+      <c r="J38" s="199">
         <v>7</v>
       </c>
-      <c r="K38" s="11"/>
-      <c r="L38" s="12" t="s">
+      <c r="K38" s="200"/>
+      <c r="L38" s="201" t="s">
         <v>75</v>
       </c>
-      <c r="M38" s="10" t="s">
+      <c r="M38" s="199" t="s">
         <v>16</v>
       </c>
       <c r="N38" s="42"/>
@@ -26579,7 +26609,7 @@
       <c r="J48" s="10">
         <v>1</v>
       </c>
-      <c r="K48" s="189"/>
+      <c r="K48" s="188"/>
       <c r="L48" s="12" t="s">
         <v>277</v>
       </c>
@@ -30741,12 +30771,12 @@
       </c>
     </row>
     <row r="43" spans="1:16" ht="31.5" customHeight="1">
-      <c r="A43" s="193" t="s">
+      <c r="A43" s="195" t="s">
         <v>113</v>
       </c>
-      <c r="B43" s="193"/>
-      <c r="C43" s="193"/>
-      <c r="D43" s="193"/>
+      <c r="B43" s="195"/>
+      <c r="C43" s="195"/>
+      <c r="D43" s="195"/>
       <c r="E43" s="16"/>
       <c r="F43" s="137">
         <f>SUM(F2:F42)</f>

--- a/Civilworks cost/RADP Preparations/Netrakona/Projecttion_input.xlsx
+++ b/Civilworks cost/RADP Preparations/Netrakona/Projecttion_input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20040" windowHeight="8820" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20040" windowHeight="8820" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="HaorCode" sheetId="9" r:id="rId1"/>
@@ -2673,18 +2673,6 @@
     <xf numFmtId="4" fontId="10" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2702,6 +2690,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -13635,13 +13635,13 @@
       <c r="Q48" s="26"/>
     </row>
     <row r="49" spans="1:16" ht="43.15" customHeight="1">
-      <c r="A49" s="195" t="s">
+      <c r="A49" s="201" t="s">
         <v>113</v>
       </c>
-      <c r="B49" s="195"/>
-      <c r="C49" s="195"/>
-      <c r="D49" s="195"/>
-      <c r="E49" s="195"/>
+      <c r="B49" s="201"/>
+      <c r="C49" s="201"/>
+      <c r="D49" s="201"/>
+      <c r="E49" s="201"/>
       <c r="F49" s="39">
         <f>SUM(F2:F48)</f>
         <v>8936.8330894957307</v>
@@ -24594,13 +24594,13 @@
       </c>
     </row>
     <row r="43" spans="1:16" ht="33" customHeight="1">
-      <c r="A43" s="192" t="s">
+      <c r="A43" s="198" t="s">
         <v>92</v>
       </c>
-      <c r="B43" s="193"/>
-      <c r="C43" s="193"/>
-      <c r="D43" s="193"/>
-      <c r="E43" s="194"/>
+      <c r="B43" s="199"/>
+      <c r="C43" s="199"/>
+      <c r="D43" s="199"/>
+      <c r="E43" s="200"/>
       <c r="F43" s="9">
         <f>SUM(F2:F42)</f>
         <v>7378.322949676779</v>
@@ -24639,8 +24639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A43" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25185,7 +25185,7 @@
       <c r="O13" s="42"/>
     </row>
     <row r="14" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1">
-      <c r="A14" s="196" t="s">
+      <c r="A14" s="192" t="s">
         <v>32</v>
       </c>
       <c r="B14" s="167" t="s">
@@ -25194,39 +25194,39 @@
       <c r="C14" s="167" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="197">
+      <c r="D14" s="193">
         <v>20.9</v>
       </c>
-      <c r="E14" s="197">
+      <c r="E14" s="193">
         <v>522.9</v>
       </c>
-      <c r="F14" s="198">
-        <v>1</v>
-      </c>
-      <c r="G14" s="198">
-        <v>1</v>
-      </c>
-      <c r="H14" s="199" t="s">
+      <c r="F14" s="194">
+        <v>1</v>
+      </c>
+      <c r="G14" s="194">
+        <v>1</v>
+      </c>
+      <c r="H14" s="195" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="199" t="s">
+      <c r="I14" s="195" t="s">
         <v>14</v>
       </c>
-      <c r="J14" s="199">
+      <c r="J14" s="195">
         <v>9</v>
       </c>
-      <c r="K14" s="200"/>
-      <c r="L14" s="201" t="s">
+      <c r="K14" s="196"/>
+      <c r="L14" s="197" t="s">
         <v>25</v>
       </c>
-      <c r="M14" s="199" t="s">
+      <c r="M14" s="195" t="s">
         <v>16</v>
       </c>
       <c r="N14" s="42"/>
       <c r="O14" s="42"/>
     </row>
     <row r="15" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1">
-      <c r="A15" s="196" t="s">
+      <c r="A15" s="192" t="s">
         <v>32</v>
       </c>
       <c r="B15" s="167" t="s">
@@ -25235,39 +25235,39 @@
       <c r="C15" s="167" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="197">
+      <c r="D15" s="193">
         <v>3.56</v>
       </c>
-      <c r="E15" s="197">
+      <c r="E15" s="193">
         <v>30.07</v>
       </c>
-      <c r="F15" s="198">
-        <v>1</v>
-      </c>
-      <c r="G15" s="198">
-        <v>1</v>
-      </c>
-      <c r="H15" s="199" t="s">
+      <c r="F15" s="194">
+        <v>1</v>
+      </c>
+      <c r="G15" s="194">
+        <v>1</v>
+      </c>
+      <c r="H15" s="195" t="s">
         <v>34</v>
       </c>
-      <c r="I15" s="199" t="s">
+      <c r="I15" s="195" t="s">
         <v>14</v>
       </c>
-      <c r="J15" s="199">
+      <c r="J15" s="195">
         <v>10</v>
       </c>
-      <c r="K15" s="200"/>
-      <c r="L15" s="201" t="s">
+      <c r="K15" s="196"/>
+      <c r="L15" s="197" t="s">
         <v>19</v>
       </c>
-      <c r="M15" s="199" t="s">
+      <c r="M15" s="195" t="s">
         <v>16</v>
       </c>
       <c r="N15" s="42"/>
       <c r="O15" s="42"/>
     </row>
     <row r="16" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1">
-      <c r="A16" s="196" t="s">
+      <c r="A16" s="192" t="s">
         <v>32</v>
       </c>
       <c r="B16" s="167" t="s">
@@ -25276,32 +25276,32 @@
       <c r="C16" s="167" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="197">
-        <v>1</v>
-      </c>
-      <c r="E16" s="197">
+      <c r="D16" s="193">
+        <v>1</v>
+      </c>
+      <c r="E16" s="193">
         <v>374.43</v>
       </c>
-      <c r="F16" s="198">
+      <c r="F16" s="194">
         <v>0.95</v>
       </c>
-      <c r="G16" s="198">
-        <v>1</v>
-      </c>
-      <c r="H16" s="199" t="s">
+      <c r="G16" s="194">
+        <v>1</v>
+      </c>
+      <c r="H16" s="195" t="s">
         <v>34</v>
       </c>
-      <c r="I16" s="199" t="s">
+      <c r="I16" s="195" t="s">
         <v>14</v>
       </c>
-      <c r="J16" s="199">
+      <c r="J16" s="195">
         <v>2</v>
       </c>
-      <c r="K16" s="200"/>
-      <c r="L16" s="201" t="s">
+      <c r="K16" s="196"/>
+      <c r="L16" s="197" t="s">
         <v>15</v>
       </c>
-      <c r="M16" s="199" t="s">
+      <c r="M16" s="195" t="s">
         <v>16</v>
       </c>
       <c r="N16" s="42"/>
@@ -26128,7 +26128,7 @@
       <c r="O36" s="42"/>
     </row>
     <row r="37" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1">
-      <c r="A37" s="196" t="s">
+      <c r="A37" s="192" t="s">
         <v>72</v>
       </c>
       <c r="B37" s="167" t="s">
@@ -26137,39 +26137,39 @@
       <c r="C37" s="167" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="197">
+      <c r="D37" s="193">
         <v>10</v>
       </c>
-      <c r="E37" s="197">
+      <c r="E37" s="193">
         <v>522.74</v>
       </c>
-      <c r="F37" s="198">
-        <v>1</v>
-      </c>
-      <c r="G37" s="198">
-        <v>1</v>
-      </c>
-      <c r="H37" s="199" t="s">
+      <c r="F37" s="194">
+        <v>1</v>
+      </c>
+      <c r="G37" s="194">
+        <v>1</v>
+      </c>
+      <c r="H37" s="195" t="s">
         <v>74</v>
       </c>
-      <c r="I37" s="199" t="s">
+      <c r="I37" s="195" t="s">
         <v>54</v>
       </c>
-      <c r="J37" s="199">
+      <c r="J37" s="195">
         <v>7</v>
       </c>
-      <c r="K37" s="200"/>
-      <c r="L37" s="201" t="s">
+      <c r="K37" s="196"/>
+      <c r="L37" s="197" t="s">
         <v>75</v>
       </c>
-      <c r="M37" s="199" t="s">
+      <c r="M37" s="195" t="s">
         <v>16</v>
       </c>
       <c r="N37" s="42"/>
       <c r="O37" s="42"/>
     </row>
     <row r="38" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1">
-      <c r="A38" s="196" t="s">
+      <c r="A38" s="192" t="s">
         <v>72</v>
       </c>
       <c r="B38" s="167" t="s">
@@ -26178,32 +26178,32 @@
       <c r="C38" s="167" t="s">
         <v>12</v>
       </c>
-      <c r="D38" s="197">
+      <c r="D38" s="193">
         <v>11.44</v>
       </c>
-      <c r="E38" s="197">
+      <c r="E38" s="193">
         <v>460.9</v>
       </c>
-      <c r="F38" s="198">
-        <v>1</v>
-      </c>
-      <c r="G38" s="198">
-        <v>1</v>
-      </c>
-      <c r="H38" s="199" t="s">
+      <c r="F38" s="194">
+        <v>1</v>
+      </c>
+      <c r="G38" s="194">
+        <v>1</v>
+      </c>
+      <c r="H38" s="195" t="s">
         <v>74</v>
       </c>
-      <c r="I38" s="199" t="s">
+      <c r="I38" s="195" t="s">
         <v>54</v>
       </c>
-      <c r="J38" s="199">
+      <c r="J38" s="195">
         <v>7</v>
       </c>
-      <c r="K38" s="200"/>
-      <c r="L38" s="201" t="s">
+      <c r="K38" s="196"/>
+      <c r="L38" s="197" t="s">
         <v>75</v>
       </c>
-      <c r="M38" s="199" t="s">
+      <c r="M38" s="195" t="s">
         <v>16</v>
       </c>
       <c r="N38" s="42"/>
@@ -28386,8 +28386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -30771,12 +30771,12 @@
       </c>
     </row>
     <row r="43" spans="1:16" ht="31.5" customHeight="1">
-      <c r="A43" s="195" t="s">
+      <c r="A43" s="201" t="s">
         <v>113</v>
       </c>
-      <c r="B43" s="195"/>
-      <c r="C43" s="195"/>
-      <c r="D43" s="195"/>
+      <c r="B43" s="201"/>
+      <c r="C43" s="201"/>
+      <c r="D43" s="201"/>
       <c r="E43" s="16"/>
       <c r="F43" s="137">
         <f>SUM(F2:F42)</f>
